--- a/Data/Transitions/18841894Translation.xlsx
+++ b/Data/Transitions/18841894Translation.xlsx
@@ -247,10 +247,10 @@
     <t>{139.0: 1.0}</t>
   </si>
   <si>
-    <t>{141.0: 0.03256451940662467}</t>
-  </si>
-  <si>
-    <t>{141.0: 0.9674354805933754}</t>
+    <t>{141.0: 0.0324770735167452}</t>
+  </si>
+  <si>
+    <t>{141.0: 0.9675229264832548}</t>
   </si>
   <si>
     <t>{142.0: 1.0}</t>
@@ -265,7 +265,7 @@
     <t>{146.0: 1.0}</t>
   </si>
   <si>
-    <t>{147.0: 0.8812172088142707}</t>
+    <t>{147.0: 0.8898618408250633}</t>
   </si>
   <si>
     <t>{148.0: 1.0}</t>
@@ -445,6 +445,9 @@
     <t>{241.0: 1.0}</t>
   </si>
   <si>
+    <t>{242.0: 1.0}</t>
+  </si>
+  <si>
     <t>{243.0: 1.0}</t>
   </si>
   <si>
@@ -547,7 +550,7 @@
     <t>{284.0: 1.0}</t>
   </si>
   <si>
-    <t>{311.0: 0.23822317750313451}</t>
+    <t>{311.0: 0.2053419793114096}</t>
   </si>
   <si>
     <t>{287.0: 1.0}</t>
@@ -604,7 +607,7 @@
     <t>{305.0: 1.0}</t>
   </si>
   <si>
-    <t>{602.0: 0.11309836927932668}</t>
+    <t>{602.0: 0.07660787457687511}</t>
   </si>
   <si>
     <t>{587.0: 0.40862205765670456}</t>
@@ -616,7 +619,7 @@
     <t>{310.0: 1.0}</t>
   </si>
   <si>
-    <t>{311.0: 0.7617768224968655}</t>
+    <t>{311.0: 0.7946580206885904}</t>
   </si>
   <si>
     <t>{313.0: 1.0}</t>
@@ -640,9 +643,6 @@
     <t>{319.0: 1.0}</t>
   </si>
   <si>
-    <t>{320.0: 1.0}</t>
-  </si>
-  <si>
     <t>{321.0: 1.0}</t>
   </si>
   <si>
@@ -982,7 +982,7 @@
     <t>{601.0: 1.0}</t>
   </si>
   <si>
-    <t>{602.0: 0.8869016307206733}</t>
+    <t>{602.0: 0.9233921254231249}</t>
   </si>
   <si>
     <t>{603.0: 1.0}</t>
@@ -1132,7 +1132,7 @@
     <t>{702.0: 1.0}</t>
   </si>
   <si>
-    <t>{703.0: 0.716503881793138}</t>
+    <t>{703.0: 0.741020361473347}</t>
   </si>
   <si>
     <t>{704.0: 1.0}</t>
@@ -1213,7 +1213,7 @@
     <t>{756.0: 1.0}</t>
   </si>
   <si>
-    <t>{147.0: 0.11878279118572928, 703.0: 0.283496118206862}</t>
+    <t>{147.0: 0.11013815917493676, 703.0: 0.25897963852665296}</t>
   </si>
   <si>
     <t>{758.0: 1.0}</t>
@@ -1564,7 +1564,7 @@
     <t>{587.0: 1.0}</t>
   </si>
   <si>
-    <t>{309.0: 0.784191538209249, 204.0: 0.21580846179075105}</t>
+    <t>{309.0: 0.7846153846153846, 204.0: 0.21538461538461542}</t>
   </si>
   <si>
     <t>{935.0: 1.0}</t>
@@ -3493,7 +3493,7 @@
     </row>
     <row r="142" spans="1:3">
       <c r="A142">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B142" t="s">
         <v>143</v>
@@ -3504,7 +3504,7 @@
     </row>
     <row r="143" spans="1:3">
       <c r="A143">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B143" t="s">
         <v>144</v>
@@ -3515,7 +3515,7 @@
     </row>
     <row r="144" spans="1:3">
       <c r="A144">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B144" t="s">
         <v>145</v>
@@ -3526,7 +3526,7 @@
     </row>
     <row r="145" spans="1:3">
       <c r="A145">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B145" t="s">
         <v>146</v>
@@ -3537,7 +3537,7 @@
     </row>
     <row r="146" spans="1:3">
       <c r="A146">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B146" t="s">
         <v>147</v>
@@ -3548,7 +3548,7 @@
     </row>
     <row r="147" spans="1:3">
       <c r="A147">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B147" t="s">
         <v>148</v>
@@ -3559,7 +3559,7 @@
     </row>
     <row r="148" spans="1:3">
       <c r="A148">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B148" t="s">
         <v>149</v>
@@ -3570,7 +3570,7 @@
     </row>
     <row r="149" spans="1:3">
       <c r="A149">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B149" t="s">
         <v>150</v>
@@ -3581,7 +3581,7 @@
     </row>
     <row r="150" spans="1:3">
       <c r="A150">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B150" t="s">
         <v>151</v>
@@ -3592,7 +3592,7 @@
     </row>
     <row r="151" spans="1:3">
       <c r="A151">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B151" t="s">
         <v>152</v>
@@ -3603,7 +3603,7 @@
     </row>
     <row r="152" spans="1:3">
       <c r="A152">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B152" t="s">
         <v>153</v>
@@ -3614,7 +3614,7 @@
     </row>
     <row r="153" spans="1:3">
       <c r="A153">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B153" t="s">
         <v>154</v>
@@ -3625,7 +3625,7 @@
     </row>
     <row r="154" spans="1:3">
       <c r="A154">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B154" t="s">
         <v>155</v>
@@ -3636,7 +3636,7 @@
     </row>
     <row r="155" spans="1:3">
       <c r="A155">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B155" t="s">
         <v>156</v>
@@ -3647,7 +3647,7 @@
     </row>
     <row r="156" spans="1:3">
       <c r="A156">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B156" t="s">
         <v>157</v>
@@ -3658,7 +3658,7 @@
     </row>
     <row r="157" spans="1:3">
       <c r="A157">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B157" t="s">
         <v>158</v>
@@ -3669,7 +3669,7 @@
     </row>
     <row r="158" spans="1:3">
       <c r="A158">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B158" t="s">
         <v>159</v>
@@ -3680,7 +3680,7 @@
     </row>
     <row r="159" spans="1:3">
       <c r="A159">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B159" t="s">
         <v>160</v>
@@ -3691,7 +3691,7 @@
     </row>
     <row r="160" spans="1:3">
       <c r="A160">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B160" t="s">
         <v>161</v>
@@ -3702,7 +3702,7 @@
     </row>
     <row r="161" spans="1:3">
       <c r="A161">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B161" t="s">
         <v>162</v>
@@ -3713,7 +3713,7 @@
     </row>
     <row r="162" spans="1:3">
       <c r="A162">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B162" t="s">
         <v>163</v>
@@ -3724,7 +3724,7 @@
     </row>
     <row r="163" spans="1:3">
       <c r="A163">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B163" t="s">
         <v>164</v>
@@ -3735,7 +3735,7 @@
     </row>
     <row r="164" spans="1:3">
       <c r="A164">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B164" t="s">
         <v>165</v>
@@ -3746,7 +3746,7 @@
     </row>
     <row r="165" spans="1:3">
       <c r="A165">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B165" t="s">
         <v>166</v>
@@ -3757,7 +3757,7 @@
     </row>
     <row r="166" spans="1:3">
       <c r="A166">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B166" t="s">
         <v>167</v>
@@ -3768,7 +3768,7 @@
     </row>
     <row r="167" spans="1:3">
       <c r="A167">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B167" t="s">
         <v>168</v>
@@ -3779,7 +3779,7 @@
     </row>
     <row r="168" spans="1:3">
       <c r="A168">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B168" t="s">
         <v>169</v>
@@ -3790,7 +3790,7 @@
     </row>
     <row r="169" spans="1:3">
       <c r="A169">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B169" t="s">
         <v>170</v>
@@ -3801,7 +3801,7 @@
     </row>
     <row r="170" spans="1:3">
       <c r="A170">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B170" t="s">
         <v>171</v>
@@ -3812,7 +3812,7 @@
     </row>
     <row r="171" spans="1:3">
       <c r="A171">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B171" t="s">
         <v>172</v>
@@ -3823,7 +3823,7 @@
     </row>
     <row r="172" spans="1:3">
       <c r="A172">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B172" t="s">
         <v>173</v>
@@ -3834,7 +3834,7 @@
     </row>
     <row r="173" spans="1:3">
       <c r="A173">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B173" t="s">
         <v>174</v>
@@ -3845,7 +3845,7 @@
     </row>
     <row r="174" spans="1:3">
       <c r="A174">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B174" t="s">
         <v>175</v>
@@ -3856,7 +3856,7 @@
     </row>
     <row r="175" spans="1:3">
       <c r="A175">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B175" t="s">
         <v>176</v>
@@ -3867,29 +3867,29 @@
     </row>
     <row r="176" spans="1:3">
       <c r="A176">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B176" t="s">
         <v>177</v>
       </c>
       <c r="C176" t="s">
-        <v>513</v>
+        <v>177</v>
       </c>
     </row>
     <row r="177" spans="1:3">
       <c r="A177">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B177" t="s">
         <v>178</v>
       </c>
       <c r="C177" t="s">
-        <v>178</v>
+        <v>513</v>
       </c>
     </row>
     <row r="178" spans="1:3">
       <c r="A178">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B178" t="s">
         <v>179</v>
@@ -3900,7 +3900,7 @@
     </row>
     <row r="179" spans="1:3">
       <c r="A179">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B179" t="s">
         <v>180</v>
@@ -3911,7 +3911,7 @@
     </row>
     <row r="180" spans="1:3">
       <c r="A180">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B180" t="s">
         <v>181</v>
@@ -3922,7 +3922,7 @@
     </row>
     <row r="181" spans="1:3">
       <c r="A181">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B181" t="s">
         <v>182</v>
@@ -3933,7 +3933,7 @@
     </row>
     <row r="182" spans="1:3">
       <c r="A182">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B182" t="s">
         <v>183</v>
@@ -3944,7 +3944,7 @@
     </row>
     <row r="183" spans="1:3">
       <c r="A183">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B183" t="s">
         <v>184</v>
@@ -3955,7 +3955,7 @@
     </row>
     <row r="184" spans="1:3">
       <c r="A184">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B184" t="s">
         <v>185</v>
@@ -3966,7 +3966,7 @@
     </row>
     <row r="185" spans="1:3">
       <c r="A185">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B185" t="s">
         <v>186</v>
@@ -3977,7 +3977,7 @@
     </row>
     <row r="186" spans="1:3">
       <c r="A186">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B186" t="s">
         <v>187</v>
@@ -3988,7 +3988,7 @@
     </row>
     <row r="187" spans="1:3">
       <c r="A187">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B187" t="s">
         <v>188</v>
@@ -3999,7 +3999,7 @@
     </row>
     <row r="188" spans="1:3">
       <c r="A188">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B188" t="s">
         <v>189</v>
@@ -4010,7 +4010,7 @@
     </row>
     <row r="189" spans="1:3">
       <c r="A189">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B189" t="s">
         <v>190</v>
@@ -4021,7 +4021,7 @@
     </row>
     <row r="190" spans="1:3">
       <c r="A190">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B190" t="s">
         <v>191</v>
@@ -4032,7 +4032,7 @@
     </row>
     <row r="191" spans="1:3">
       <c r="A191">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B191" t="s">
         <v>192</v>
@@ -4043,7 +4043,7 @@
     </row>
     <row r="192" spans="1:3">
       <c r="A192">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B192" t="s">
         <v>193</v>
@@ -4054,7 +4054,7 @@
     </row>
     <row r="193" spans="1:3">
       <c r="A193">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B193" t="s">
         <v>194</v>
@@ -4065,7 +4065,7 @@
     </row>
     <row r="194" spans="1:3">
       <c r="A194">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B194" t="s">
         <v>195</v>
@@ -4076,73 +4076,73 @@
     </row>
     <row r="195" spans="1:3">
       <c r="A195">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B195" t="s">
         <v>196</v>
       </c>
       <c r="C195" t="s">
-        <v>514</v>
+        <v>196</v>
       </c>
     </row>
     <row r="196" spans="1:3">
       <c r="A196">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B196" t="s">
         <v>197</v>
       </c>
       <c r="C196" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="197" spans="1:3">
       <c r="A197">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B197" t="s">
         <v>198</v>
       </c>
       <c r="C197" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="198" spans="1:3">
       <c r="A198">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B198" t="s">
         <v>199</v>
       </c>
       <c r="C198" t="s">
-        <v>199</v>
+        <v>516</v>
       </c>
     </row>
     <row r="199" spans="1:3">
       <c r="A199">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B199" t="s">
         <v>200</v>
       </c>
       <c r="C199" t="s">
-        <v>513</v>
+        <v>200</v>
       </c>
     </row>
     <row r="200" spans="1:3">
       <c r="A200">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B200" t="s">
         <v>201</v>
       </c>
       <c r="C200" t="s">
-        <v>201</v>
+        <v>513</v>
       </c>
     </row>
     <row r="201" spans="1:3">
       <c r="A201">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B201" t="s">
         <v>202</v>
@@ -4153,7 +4153,7 @@
     </row>
     <row r="202" spans="1:3">
       <c r="A202">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B202" t="s">
         <v>203</v>
@@ -4164,7 +4164,7 @@
     </row>
     <row r="203" spans="1:3">
       <c r="A203">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B203" t="s">
         <v>204</v>
@@ -4175,7 +4175,7 @@
     </row>
     <row r="204" spans="1:3">
       <c r="A204">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B204" t="s">
         <v>205</v>
@@ -4186,7 +4186,7 @@
     </row>
     <row r="205" spans="1:3">
       <c r="A205">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B205" t="s">
         <v>206</v>
@@ -4197,7 +4197,7 @@
     </row>
     <row r="206" spans="1:3">
       <c r="A206">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B206" t="s">
         <v>207</v>
@@ -4208,7 +4208,7 @@
     </row>
     <row r="207" spans="1:3">
       <c r="A207">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B207" t="s">
         <v>208</v>
